--- a/imageCreationExcel/back/113/113_11.xlsx
+++ b/imageCreationExcel/back/113/113_11.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8689125968280196</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6935092547700858</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3330918825231353</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_I_contrast0.869_gamma0.694_sharpness0.333.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,15 +537,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.07869175547688</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6249521670161241</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15.64638885683112</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_C_contrast1.079_gamma0.625_equalization15.646.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4268321945343612</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.139259119121511</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7255111053739066</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_brightness0.427_contrast1.139_sharpness0.726.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22.26717602407079</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.881236865112242</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.07372262950382258</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_1_brightness22.267_gamma0.881_sharpness0.074.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.854637079615807</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8308525402445385</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5745010132007751</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_T_brightness1.855_contrast0.831_sharpness0.575.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8125746866068531</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.4922677647271801</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.860628946536026</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_contrast0.813_sharpness0.492_equalization7.861.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16.06710856945453</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8948379268495319</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6070992324983423</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_7_brightness16.067_contrast0.895_gamma0.607.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,30 +789,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.221883100223628</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.186386196606523</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9681600689570039</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_3_brightness6.222_contrast1.186_gamma0.968.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,16 +822,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9665229133027232</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8530374770476923</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>28.51980342892119</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_S_contrast0.967_gamma0.853_equalization28.52.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.032044019692523</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.4389128589084014</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9.390219539430682</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_gamma1.032_sharpness0.439_equalization9.39.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.15208386027441</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.919424151981079</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.2429633974128802</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_7_brightness12.152_contrast0.919_sharpness0.243.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -957,15 +957,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25.39057370530153</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.133412312828823</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.929130880706906</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_9_brightness25.391_contrast1.133_sharpness0.929.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,24 +990,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.847009937836566</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.130215550495477</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8283866508804825</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_C_brightness8.847_contrast1.13_sharpness0.828.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.011393061446934</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.07298845839154</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>23.69684715119019</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_3_contrast1.011_gamma1.073_equalization23.697.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.053464671765418</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.059032114134915</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.6170177547967997</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_contrast1.053_gamma1.059_sharpness0.617.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.054185809606498</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.3740299731519335</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>18.28368757218295</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_7_gamma1.054_sharpness0.374_equalization18.284.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3689932793500683</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9286564751898978</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.3380695678978609</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_S_brightness0.369_contrast0.929_sharpness0.338.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.077042629398477</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5151866468673706</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>22.89912602829184</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_gamma1.077_sharpness0.515_equalization22.899.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,16 +1242,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.117093132647606</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5123744448859733</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>29.39147949031008</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_9_contrast1.117_sharpness0.512_equalization29.391.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.142187155459855</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.07095456414670051</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10.68841455723397</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_B_contrast1.142_sharpness0.071_equalization10.688.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11.54849217535763</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8625211601072323</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.5489461008119108</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_I_brightness11.548_contrast0.863_gamma0.549.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6.971540081176059</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.191470086189698</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9849501140538386</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_brightness6.972_contrast1.191_gamma0.985.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9678993559375807</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.05881938593166675</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>15.45994479496284</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_contrast0.968_sharpness0.059_equalization15.46.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29.20098662850789</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.005362121473528</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.9438594853809467</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_brightness29.201_contrast1.005_sharpness0.944.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.073793569520571</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7828187144786436</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.8968607842837681</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_I_contrast1.074_gamma0.783_sharpness0.897.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29.69086215622827</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9871780306053866</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.9734994663307109</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_brightness29.691_contrast0.987_gamma0.973.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.030477010139524</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.1972039860155189</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18.67666027816175</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_3_contrast1.03_sharpness0.197_equalization18.677.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.290196386174643</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.193104798161632</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.9384107967963884</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_3_brightness1.29_contrast1.193_gamma0.938.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.808988205190459</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.151560263088877</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.7437739266085133</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_brightness3.809_contrast1.152_sharpness0.744.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20.89447856667303</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5290918912684017</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.6612010192729765</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_3_brightness20.894_gamma0.529_sharpness0.661.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1751,34 +1751,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>27.00297883529833</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.7122304989082773</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.07622324141269674</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_brightness27.003_gamma0.712_sharpness0.076.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1793,34 +1793,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9559964498850827</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.081476229400084</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>29.23792961910394</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_1_contrast0.956_gamma1.081_equalization29.238.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.156503217471663</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9991280486372268</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10.46021113661792</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_9_contrast1.157_sharpness0.999_equalization10.46.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9574059221527758</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5375074843644942</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>28.06073160462485</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_8_gamma0.957_sharpness0.538_equalization28.061.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.7101120350392449</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.4405005506266267</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>20.69775890172313</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_E_gamma0.71_sharpness0.441_equalization20.698.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1961,34 +1961,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13.69764581583979</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8623502650886131</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.6121036580922958</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_C_brightness13.698_contrast0.862_gamma0.612.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.783997844174524</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8802425636780111</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5566722732929212</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_P_brightness4.784_contrast0.88_sharpness0.557.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.073658448760513</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.4980165542414346</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>15.29028140862354</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_2_gamma1.074_sharpness0.498_equalization15.29.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,30 +2091,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.189068181751142</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.848137535903798</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.9255818630278656</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_0_contrast1.189_gamma0.848_sharpness0.926.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.044262134612977</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3632399103439284</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7.814237943450689</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_2_gamma1.044_sharpness0.363_equalization7.814.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>14.09322352237855</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9055830910123088</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.20412867414159</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_3_brightness14.093_contrast0.906_sharpness0.204.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9843892057798762</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.970773629176386</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>28.02962870204793</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_2_gamma0.984_sharpness0.971_equalization28.03.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.7837336110031399</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.3739195868635587</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>14.74310753962037</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_gamma0.784_sharpness0.374_equalization14.743.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>23.50462193617835</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.6573661823131964</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.5604140921537794</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_P_brightness23.505_gamma0.657_sharpness0.56.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.192066699123626</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9511601900700988</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4.48707767164569</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_S_contrast1.192_sharpness0.951_equalization4.487.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>27.13313393461544</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.041313061255565</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.9838034598635983</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_S_brightness27.133_contrast1.041_gamma0.984.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,15 +2427,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15.59087234161242</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9159014527966071</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.223162547792731</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_7_brightness15.591_contrast0.916_sharpness0.223.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>21.78481877538179</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6992187589844431</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.4790107854547226</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_9_brightness21.785_gamma0.699_sharpness0.479.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
